--- a/_DOCUMENTS_/Database Design.xlsx
+++ b/_DOCUMENTS_/Database Design.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="94">
   <si>
     <t>USER LEVEL MANAGEMENT</t>
   </si>
@@ -260,6 +261,42 @@
   </si>
   <si>
     <t>purchase_subtotal</t>
+  </si>
+  <si>
+    <t>goods_limit_stock</t>
+  </si>
+  <si>
+    <t>HISTORY</t>
+  </si>
+  <si>
+    <t>module a</t>
+  </si>
+  <si>
+    <t>module b</t>
+  </si>
+  <si>
+    <t>module c</t>
+  </si>
+  <si>
+    <t>module d</t>
+  </si>
+  <si>
+    <t>module name</t>
+  </si>
+  <si>
+    <t>module insert</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>database</t>
   </si>
 </sst>
 </file>
@@ -607,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E95"/>
+  <dimension ref="B2:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,12 +656,12 @@
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>17</v>
       </c>
@@ -635,7 +672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>11</v>
       </c>
@@ -643,17 +680,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -664,7 +701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>24</v>
       </c>
@@ -672,20 +709,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -695,21 +741,45 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -719,8 +789,11 @@
       <c r="E15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>4</v>
       </c>
@@ -1016,174 +1089,184 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
         <v>60</v>
       </c>
-      <c r="D66" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>64</v>
       </c>
-      <c r="D72" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
         <v>59</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
         <v>65</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>69</v>
       </c>
-      <c r="D79" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>57</v>
-      </c>
-      <c r="E80" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
+        <v>57</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
         <v>76</v>
       </c>
-      <c r="D83" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>74</v>
-      </c>
-      <c r="E84" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>72</v>
-      </c>
-      <c r="E86" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
+        <v>72</v>
+      </c>
+      <c r="E87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
         <v>75</v>
       </c>
-      <c r="D89" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1192,4 +1275,61 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D9:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19:P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_DOCUMENTS_/Database Design.xlsx
+++ b/_DOCUMENTS_/Database Design.xlsx
@@ -647,13 +647,14 @@
   <dimension ref="B2:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:F21"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">

--- a/_DOCUMENTS_/Database Design.xlsx
+++ b/_DOCUMENTS_/Database Design.xlsx
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
